--- a/DTR/NOV16-31/AscendionNew_35311_John_11-16-2025.xlsx
+++ b/DTR/NOV16-31/AscendionNew_35311_John_11-16-2025.xlsx
@@ -733,24 +733,24 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -758,31 +758,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,39 +790,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -834,7 +834,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,7 +842,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,35 +850,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,19 +886,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,103 +906,103 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1010,19 +1010,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1030,19 +1030,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,7 +1054,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,7 +1066,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,19 +1090,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,6 +1110,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1126,19 +1130,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,27 +1162,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1186,11 +1190,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,46 +1212,7 @@
     <cellStyle name="Normal 2 2" xfId="23"/>
     <cellStyle name="Normal 3" xfId="24"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9C0006"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC3D69B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1514,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:DS44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2903,18 +2868,10 @@
         <f aca="false">IFERROR(IF(N15="Strict",IF(C15="Normal",IFERROR(IF((HOUR(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))+MINUTE(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))/60)&gt;=6,HOUR(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))+MINUTE(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))/60-1,HOUR(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))+MINUTE(IF(AQ15&lt;=AR15,BB15-AR15,BB15-AQ15))/60),0),0),IF(N15="Flexi",IF(C15="Normal",IF((HOUR(BB15-AR15)+MINUTE(BB15-AR15)/60)&gt;=6,(HOUR(BB15-AR15)+MINUTE(BB15-AR15)/60)-1,(HOUR(BB15-AR15)+MINUTE(BB15-AR15)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="82" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="K15" s="79" t="n">
-        <v>45978</v>
-      </c>
-      <c r="L15" s="84" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M15" s="79" t="n">
-        <v>45979</v>
-      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="79" t="s">
         <v>2</v>
       </c>
@@ -3042,11 +2999,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="AV15" s="60" t="str">
-        <f aca="false">TEXT(J15,"HH:MM")&amp;" "&amp;TEXT(K15,"DD-mmm-YY")</f>
-        <v>22:00 17-Nov-25</v>
+        <f aca="false">TEXT(J19,"HH:MM")&amp;" "&amp;TEXT(K19,"DD-mmm-YY")</f>
+        <v>22:00 21-Nov-25</v>
       </c>
       <c r="AW15" s="60" t="str">
-        <f aca="false">IF(K15&lt;A15,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A15-1),"dd-mmm-yy"),IF(AND(D15&gt;0,D15&lt;0.25,L15&lt;0.916666666666667,A15&lt;M15),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A15-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A15,"dd-mmm-yy")))</f>
+        <f aca="false">IF(K19&lt;A15,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A15-1),"dd-mmm-yy"),IF(AND(D15&gt;0,D15&lt;0.25,L19&lt;0.916666666666667,A15&lt;M19),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A15-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A15,"dd-mmm-yy")))</f>
         <v>22:00 17-Nov-25</v>
       </c>
       <c r="AX15" s="40" t="e">
@@ -3054,11 +3011,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="AY15" s="60" t="str">
-        <f aca="false">TEXT(L15,"HH:MM")&amp;" "&amp;TEXT(M15,"DD-mmm-YY")</f>
-        <v>02:00 18-Nov-25</v>
+        <f aca="false">TEXT(L19,"HH:MM")&amp;" "&amp;TEXT(M19,"DD-mmm-YY")</f>
+        <v>02:00 22-Nov-25</v>
       </c>
       <c r="AZ15" s="60" t="str">
-        <f aca="false">IF(AND(D15&gt;=0,D15&lt;0.25,L15&lt;0.916666666666667,A15&gt;M15),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A15,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A15+1),"DD-mmm-YY"))</f>
+        <f aca="false">IF(AND(D15&gt;=0,D15&lt;0.25,L19&lt;0.916666666666667,A15&gt;M19),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A15,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A15+1),"DD-mmm-YY"))</f>
         <v>06:00 18-Nov-25</v>
       </c>
       <c r="BA15" s="40" t="e">
@@ -3094,7 +3051,7 @@
       </c>
       <c r="BI15" s="9" t="str">
         <f aca="false">AV15</f>
-        <v>22:00 17-Nov-25</v>
+        <v>22:00 21-Nov-25</v>
       </c>
       <c r="BJ15" s="91" t="e">
         <f aca="false" t="array" ref="BJ15:BJ15">MAX(BH15:BI15+0)</f>
@@ -3106,7 +3063,7 @@
       </c>
       <c r="BL15" s="9" t="str">
         <f aca="false">AY15</f>
-        <v>02:00 18-Nov-25</v>
+        <v>02:00 22-Nov-25</v>
       </c>
       <c r="BM15" s="91" t="e">
         <f aca="false" t="array" ref="BM15:BM15">MIN(BK15:BL15+0)</f>
@@ -3121,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="92" t="n">
-        <f aca="false">IF(AND(A15&lt;M15,L15&gt;0.25,L15&lt;=0.916666666666667,J15&gt;=0.25),IFERROR(HOUR(AY15-AV15)+MINUTE(AY15-AV15)/60,0),IFERROR(HOUR(AY15-BK15)+MINUTE(AY15-BK15)/60,0))</f>
+        <f aca="false">IF(AND(A15&lt;M19,L19&gt;0.25,L19&lt;=0.916666666666667,J19&gt;=0.25),IFERROR(HOUR(AY15-AV15)+MINUTE(AY15-AV15)/60,0),IFERROR(HOUR(AY15-BK15)+MINUTE(AY15-BK15)/60,0))</f>
         <v>0</v>
       </c>
       <c r="BQ15" s="13" t="n">
@@ -3375,18 +3332,10 @@
         <f aca="false">IFERROR(IF(N16="Strict",IF(C16="Normal",IFERROR(IF((HOUR(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))+MINUTE(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))/60)&gt;=6,HOUR(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))+MINUTE(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))/60-1,HOUR(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))+MINUTE(IF(AQ16&lt;=AR16,BB16-AR16,BB16-AQ16))/60),0),0),IF(N16="Flexi",IF(C16="Normal",IF((HOUR(BB16-AR16)+MINUTE(BB16-AR16)/60)&gt;=6,(HOUR(BB16-AR16)+MINUTE(BB16-AR16)/60)-1,(HOUR(BB16-AR16)+MINUTE(BB16-AR16)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="82" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="K16" s="79" t="n">
-        <v>45979</v>
-      </c>
-      <c r="L16" s="84" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M16" s="79" t="n">
-        <v>45980</v>
-      </c>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
       <c r="N16" s="79" t="s">
         <v>2</v>
       </c>
@@ -3514,11 +3463,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="AV16" s="60" t="str">
-        <f aca="false">TEXT(J16,"HH:MM")&amp;" "&amp;TEXT(K16,"DD-mmm-YY")</f>
-        <v>22:00 18-Nov-25</v>
+        <f aca="false">TEXT(J22,"HH:MM")&amp;" "&amp;TEXT(K22,"DD-mmm-YY")</f>
+        <v>22:00 24-Nov-25</v>
       </c>
       <c r="AW16" s="60" t="str">
-        <f aca="false">IF(K16&lt;A16,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A16-1),"dd-mmm-yy"),IF(AND(D16&gt;0,D16&lt;0.25,L16&lt;0.916666666666667,A16&lt;M16),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A16-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A16,"dd-mmm-yy")))</f>
+        <f aca="false">IF(K22&lt;A16,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A16-1),"dd-mmm-yy"),IF(AND(D16&gt;0,D16&lt;0.25,L22&lt;0.916666666666667,A16&lt;M22),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A16-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A16,"dd-mmm-yy")))</f>
         <v>22:00 18-Nov-25</v>
       </c>
       <c r="AX16" s="40" t="e">
@@ -3526,11 +3475,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="AY16" s="60" t="str">
-        <f aca="false">TEXT(L16,"HH:MM")&amp;" "&amp;TEXT(M16,"DD-mmm-YY")</f>
-        <v>02:00 19-Nov-25</v>
+        <f aca="false">TEXT(L22,"HH:MM")&amp;" "&amp;TEXT(M22,"DD-mmm-YY")</f>
+        <v>02:00 25-Nov-25</v>
       </c>
       <c r="AZ16" s="60" t="str">
-        <f aca="false">IF(AND(D16&gt;=0,D16&lt;0.25,L16&lt;0.916666666666667,A16&gt;M16),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A16,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A16+1),"DD-mmm-YY"))</f>
+        <f aca="false">IF(AND(D16&gt;=0,D16&lt;0.25,L22&lt;0.916666666666667,A16&gt;M22),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A16,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A16+1),"DD-mmm-YY"))</f>
         <v>06:00 19-Nov-25</v>
       </c>
       <c r="BA16" s="40" t="e">
@@ -3566,7 +3515,7 @@
       </c>
       <c r="BI16" s="9" t="str">
         <f aca="false">AV16</f>
-        <v>22:00 18-Nov-25</v>
+        <v>22:00 24-Nov-25</v>
       </c>
       <c r="BJ16" s="91" t="e">
         <f aca="false" t="array" ref="BJ16:BJ16">MAX(BH16:BI16+0)</f>
@@ -3578,7 +3527,7 @@
       </c>
       <c r="BL16" s="9" t="str">
         <f aca="false">AY16</f>
-        <v>02:00 19-Nov-25</v>
+        <v>02:00 25-Nov-25</v>
       </c>
       <c r="BM16" s="91" t="e">
         <f aca="false" t="array" ref="BM16:BM16">MIN(BK16:BL16+0)</f>
@@ -3593,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="92" t="n">
-        <f aca="false">IF(AND(A16&lt;M16,L16&gt;0.25,L16&lt;=0.916666666666667,J16&gt;=0.25),IFERROR(HOUR(AY16-AV16)+MINUTE(AY16-AV16)/60,0),IFERROR(HOUR(AY16-BK16)+MINUTE(AY16-BK16)/60,0))</f>
+        <f aca="false">IF(AND(A16&lt;M22,L22&gt;0.25,L22&lt;=0.916666666666667,J22&gt;=0.25),IFERROR(HOUR(AY16-AV16)+MINUTE(AY16-AV16)/60,0),IFERROR(HOUR(AY16-BK16)+MINUTE(AY16-BK16)/60,0))</f>
         <v>0</v>
       </c>
       <c r="BQ16" s="13" t="n">
@@ -4312,14 +4261,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="82"/>
-      <c r="K18" s="94"/>
+      <c r="K18" s="95"/>
       <c r="L18" s="82"/>
-      <c r="M18" s="94"/>
+      <c r="M18" s="95"/>
       <c r="N18" s="79" t="s">
         <v>2</v>
       </c>
       <c r="O18" s="85"/>
-      <c r="P18" s="94"/>
+      <c r="P18" s="95"/>
       <c r="Q18" s="86"/>
       <c r="R18" s="87" t="n">
         <f aca="false">IF(AND(C18="Normal",I18&gt;0),(8-S18),0)-IF(AND(C18="Normal",OR(C19="Special Holiday",C19="Working - Legal Holiday on RD",C19="Working - Special Holiday on RD",C19="Legal Holiday",C19="Legal Holiday on RD",C19="Special Holiday on RD")),BN18,0)+IF(AND(OR(C18="Normal",C18="Leave",C18="Rest Day"),OR(C17="Special Holiday",C17="Working - Legal Holiday on RD",C17="Working - Special Holiday on RD",C17="Legal Holiday")),BN17,0)</f>
@@ -4775,10 +4724,18 @@
         <f aca="false">IFERROR(IF(N19="Strict",IF(C19="Normal",IFERROR(IF((HOUR(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))+MINUTE(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))/60)&gt;=6,HOUR(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))+MINUTE(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))/60-1,HOUR(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))+MINUTE(IF(AQ19&lt;=AR19,BB19-AR19,BB19-AQ19))/60),0),0),IF(N19="Flexi",IF(C19="Normal",IF((HOUR(BB19-AR19)+MINUTE(BB19-AR19)/60)&gt;=6,(HOUR(BB19-AR19)+MINUTE(BB19-AR19)/60)-1,(HOUR(BB19-AR19)+MINUTE(BB19-AR19)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="79"/>
+      <c r="J19" s="82" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K19" s="79" t="n">
+        <v>45982</v>
+      </c>
+      <c r="L19" s="84" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M19" s="79" t="n">
+        <v>45983</v>
+      </c>
       <c r="N19" s="79" t="s">
         <v>2</v>
       </c>
@@ -4907,11 +4864,11 @@
       </c>
       <c r="AV19" s="60" t="str">
         <f aca="false">TEXT(J19,"HH:MM")&amp;" "&amp;TEXT(K19,"DD-mmm-YY")</f>
-        <v>00:00 00-Jan-00</v>
+        <v>22:00 21-Nov-25</v>
       </c>
       <c r="AW19" s="60" t="str">
         <f aca="false">IF(K19&lt;A19,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A19-1),"dd-mmm-yy"),IF(AND(D19&gt;0,D19&lt;0.25,L19&lt;0.916666666666667,A19&lt;M19),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A19-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A19,"dd-mmm-yy")))</f>
-        <v>22:00 20-Nov-25</v>
+        <v>22:00 21-Nov-25</v>
       </c>
       <c r="AX19" s="40" t="e">
         <f aca="false" t="array" ref="AX19:AX19">MAX(AV19:AW19+0)</f>
@@ -4919,7 +4876,7 @@
       </c>
       <c r="AY19" s="60" t="str">
         <f aca="false">TEXT(L19,"HH:MM")&amp;" "&amp;TEXT(M19,"DD-mmm-YY")</f>
-        <v>00:00 00-Jan-00</v>
+        <v>02:00 22-Nov-25</v>
       </c>
       <c r="AZ19" s="60" t="str">
         <f aca="false">IF(AND(D19&gt;=0,D19&lt;0.25,L19&lt;0.916666666666667,A19&gt;M19),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A19,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A19+1),"DD-mmm-YY"))</f>
@@ -4958,7 +4915,7 @@
       </c>
       <c r="BI19" s="9" t="str">
         <f aca="false">AV19</f>
-        <v>00:00 00-Jan-00</v>
+        <v>22:00 21-Nov-25</v>
       </c>
       <c r="BJ19" s="91" t="e">
         <f aca="false" t="array" ref="BJ19:BJ19">MAX(BH19:BI19+0)</f>
@@ -4970,7 +4927,7 @@
       </c>
       <c r="BL19" s="9" t="str">
         <f aca="false">AY19</f>
-        <v>00:00 00-Jan-00</v>
+        <v>02:00 22-Nov-25</v>
       </c>
       <c r="BM19" s="91" t="e">
         <f aca="false" t="array" ref="BM19:BM19">MIN(BK19:BL19+0)</f>
@@ -6143,10 +6100,18 @@
         <f aca="false">IFERROR(IF(N22="Strict",IF(C22="Normal",IFERROR(IF((HOUR(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))+MINUTE(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))/60)&gt;=6,HOUR(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))+MINUTE(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))/60-1,HOUR(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))+MINUTE(IF(AQ22&lt;=AR22,BB22-AR22,BB22-AQ22))/60),0),0),IF(N22="Flexi",IF(C22="Normal",IF((HOUR(BB22-AR22)+MINUTE(BB22-AR22)/60)&gt;=6,(HOUR(BB22-AR22)+MINUTE(BB22-AR22)/60)-1,(HOUR(BB22-AR22)+MINUTE(BB22-AR22)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="79"/>
+      <c r="J22" s="82" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K22" s="79" t="n">
+        <v>45985</v>
+      </c>
+      <c r="L22" s="84" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M22" s="79" t="n">
+        <v>45986</v>
+      </c>
       <c r="N22" s="79" t="s">
         <v>2</v>
       </c>
@@ -6275,11 +6240,11 @@
       </c>
       <c r="AV22" s="60" t="str">
         <f aca="false">TEXT(J22,"HH:MM")&amp;" "&amp;TEXT(K22,"DD-mmm-YY")</f>
-        <v>00:00 00-Jan-00</v>
+        <v>22:00 24-Nov-25</v>
       </c>
       <c r="AW22" s="60" t="str">
         <f aca="false">IF(K22&lt;A22,TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A22-1),"dd-mmm-yy"),IF(AND(D22&gt;0,D22&lt;0.25,L22&lt;0.916666666666667,A22&lt;M22),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT((A22-1),"dd-mmm-yy"),TEXT($AR$1,"HH:MM")&amp;" "&amp;TEXT(A22,"dd-mmm-yy")))</f>
-        <v>22:00 23-Nov-25</v>
+        <v>22:00 24-Nov-25</v>
       </c>
       <c r="AX22" s="40" t="e">
         <f aca="false" t="array" ref="AX22:AX22">MAX(AV22:AW22+0)</f>
@@ -6287,7 +6252,7 @@
       </c>
       <c r="AY22" s="60" t="str">
         <f aca="false">TEXT(L22,"HH:MM")&amp;" "&amp;TEXT(M22,"DD-mmm-YY")</f>
-        <v>00:00 00-Jan-00</v>
+        <v>02:00 25-Nov-25</v>
       </c>
       <c r="AZ22" s="60" t="str">
         <f aca="false">IF(AND(D22&gt;=0,D22&lt;0.25,L22&lt;0.916666666666667,A22&gt;M22),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT(A22,"DD-mmm-YY"),TEXT($AR$2,"HH:MM")&amp;" "&amp;TEXT((A22+1),"DD-mmm-YY"))</f>
@@ -6326,7 +6291,7 @@
       </c>
       <c r="BI22" s="9" t="str">
         <f aca="false">AV22</f>
-        <v>00:00 00-Jan-00</v>
+        <v>22:00 24-Nov-25</v>
       </c>
       <c r="BJ22" s="91" t="e">
         <f aca="false" t="array" ref="BJ22:BJ22">MAX(BH22:BI22+0)</f>
@@ -6338,7 +6303,7 @@
       </c>
       <c r="BL22" s="9" t="str">
         <f aca="false">AY22</f>
-        <v>00:00 00-Jan-00</v>
+        <v>02:00 25-Nov-25</v>
       </c>
       <c r="BM22" s="91" t="e">
         <f aca="false" t="array" ref="BM22:BM22">MIN(BK22:BL22+0)</f>
@@ -7535,7 +7500,7 @@
         <f aca="false">IFERROR(IF(N25="Strict",IF(C25="Normal",IFERROR(IF((HOUR(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))+MINUTE(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))/60)&gt;=6,HOUR(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))+MINUTE(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))/60-1,HOUR(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))+MINUTE(IF(AQ25&lt;=AR25,BB25-AR25,BB25-AQ25))/60),0),0),IF(N25="Flexi",IF(C25="Normal",IF((HOUR(BB25-AR25)+MINUTE(BB25-AR25)/60)&gt;=6,(HOUR(BB25-AR25)+MINUTE(BB25-AR25)/60)-1,(HOUR(BB25-AR25)+MINUTE(BB25-AR25)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="95"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="79"/>
       <c r="L25" s="82"/>
       <c r="M25" s="79"/>
@@ -7999,7 +7964,7 @@
         <f aca="false">IFERROR(IF(N26="Strict",IF(C26="Normal",IFERROR(IF((HOUR(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))+MINUTE(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))/60)&gt;=6,HOUR(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))+MINUTE(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))/60-1,HOUR(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))+MINUTE(IF(AQ26&lt;=AR26,BB26-AR26,BB26-AQ26))/60),0),0),IF(N26="Flexi",IF(C26="Normal",IF((HOUR(BB26-AR26)+MINUTE(BB26-AR26)/60)&gt;=6,(HOUR(BB26-AR26)+MINUTE(BB26-AR26)/60)-1,(HOUR(BB26-AR26)+MINUTE(BB26-AR26)/60)),0),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="95"/>
+      <c r="J26" s="96"/>
       <c r="K26" s="79"/>
       <c r="L26" s="82"/>
       <c r="M26" s="79"/>
@@ -9364,7 +9329,7 @@
       <c r="N29" s="79"/>
       <c r="O29" s="85"/>
       <c r="P29" s="79"/>
-      <c r="Q29" s="96"/>
+      <c r="Q29" s="97"/>
       <c r="R29" s="87" t="n">
         <f aca="false">IF(AND(C29="Normal",I29&gt;0),(8-S29),0)-IF(AND(C29="Normal",OR(C30="Special Holiday",C30="Working - Legal Holiday on RD",C30="Working - Special Holiday on RD",C30="Legal Holiday",C30="Legal Holiday on RD",C30="Special Holiday on RD")),BN29,0)+IF(AND(OR(C29="Normal",C29="Leave",C29="Rest Day"),OR(C28="Special Holiday",C28="Working - Legal Holiday on RD",C28="Working - Special Holiday on RD",C28="Legal Holiday")),BN28,0)</f>
         <v>0</v>
@@ -9812,7 +9777,7 @@
       <c r="N30" s="79"/>
       <c r="O30" s="85"/>
       <c r="P30" s="79"/>
-      <c r="Q30" s="97"/>
+      <c r="Q30" s="98"/>
       <c r="R30" s="87" t="n">
         <f aca="false">IF(AND(C30="Normal",I30&gt;0),(8-S30),0)-IF(AND(C30="Normal",OR(C31="Special Holiday",C31="Working - Legal Holiday on RD",C31="Working - Special Holiday on RD",C31="Legal Holiday",C31="Legal Holiday on RD",C31="Special Holiday on RD")),BN30,0)+IF(AND(OR(C30="Normal",C30="Leave",C30="Rest Day"),OR(C29="Special Holiday",C29="Working - Legal Holiday on RD",C29="Working - Special Holiday on RD",C29="Legal Holiday")),BN29,0)</f>
         <v>0</v>
@@ -10241,357 +10206,357 @@
       <c r="BY31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="98" t="s">
+      <c r="J32" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="R32" s="100" t="n">
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="R32" s="101" t="n">
         <f aca="false">SUM(R14:R31)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="100" t="n">
+      <c r="S32" s="101" t="n">
         <f aca="false">SUM(S14:S31)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="100" t="n">
+      <c r="T32" s="101" t="n">
         <f aca="false">SUM(T14:T31)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="100" t="n">
+      <c r="U32" s="101" t="n">
         <f aca="false">SUM(U14:U31)</f>
         <v>0</v>
       </c>
-      <c r="V32" s="100" t="n">
+      <c r="V32" s="101" t="n">
         <f aca="false">SUM(V14:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="100" t="n">
+      <c r="W32" s="101" t="n">
         <f aca="false">SUM(W14:W31)</f>
         <v>0</v>
       </c>
-      <c r="X32" s="100" t="n">
+      <c r="X32" s="101" t="n">
         <f aca="false">SUM(X14:X31)</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="100" t="n">
+      <c r="Y32" s="101" t="n">
         <f aca="false">SUM(Y14:Y31)</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="100" t="n">
+      <c r="Z32" s="101" t="n">
         <f aca="false">SUM(Z14:Z31)</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="100" t="n">
+      <c r="AA32" s="101" t="n">
         <f aca="false">SUM(AA14:AA31)</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="100" t="n">
+      <c r="AB32" s="101" t="n">
         <f aca="false">SUM(AB14:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="100" t="n">
+      <c r="AC32" s="101" t="n">
         <f aca="false">SUM(AC14:AC31)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="100" t="n">
+      <c r="AD32" s="101" t="n">
         <f aca="false">SUM(AD14:AD31)</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="100" t="n">
+      <c r="AE32" s="101" t="n">
         <f aca="false">SUM(AE14:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="100" t="n">
+      <c r="AF32" s="101" t="n">
         <f aca="false">SUM(AF14:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="100" t="n">
+      <c r="AG32" s="101" t="n">
         <f aca="false">SUM(AG14:AG31)</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="100" t="n">
+      <c r="AH32" s="101" t="n">
         <f aca="false">SUM(AH14:AH31)</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="100" t="n">
+      <c r="AI32" s="101" t="n">
         <f aca="false">SUM(AI14:AI31)</f>
         <v>0</v>
       </c>
-      <c r="AJ32" s="100" t="n">
+      <c r="AJ32" s="101" t="n">
         <f aca="false">SUM(AJ14:AJ31)</f>
         <v>0</v>
       </c>
-      <c r="AK32" s="100" t="n">
+      <c r="AK32" s="101" t="n">
         <f aca="false">SUM(AK14:AK31)</f>
         <v>0</v>
       </c>
-      <c r="AL32" s="100" t="n">
+      <c r="AL32" s="101" t="n">
         <f aca="false">SUM(AL14:AL31)</f>
         <v>0</v>
       </c>
-      <c r="AM32" s="100" t="n">
+      <c r="AM32" s="101" t="n">
         <f aca="false">SUM(AM14:AM31)</f>
         <v>0</v>
       </c>
-      <c r="AN32" s="100" t="n">
+      <c r="AN32" s="101" t="n">
         <f aca="false">SUM(AN14:AN31)</f>
         <v>0</v>
       </c>
-      <c r="AO32" s="100" t="n">
+      <c r="AO32" s="101" t="n">
         <f aca="false">SUM(AO14:AO31)</f>
         <v>0</v>
       </c>
-      <c r="AP32" s="100" t="n">
+      <c r="AP32" s="101" t="n">
         <f aca="false">SUM(AP14:AP31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="101"/>
-      <c r="AF33" s="101"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="101"/>
-      <c r="AO33" s="101"/>
-      <c r="AP33" s="101"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="102"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="102"/>
+      <c r="AJ33" s="102"/>
+      <c r="AK33" s="102"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="102"/>
+      <c r="AN33" s="102"/>
+      <c r="AO33" s="102"/>
+      <c r="AP33" s="102"/>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="H34" s="102" t="s">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="H34" s="103" t="s">
         <v>114</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="K34" s="103" t="s">
+      <c r="K34" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="105"/>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="102"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
+      <c r="A35" s="103"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
     </row>
     <row r="37" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="108" t="s">
         <v>56</v>
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="108" t="s">
+    <row r="38" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="109" t="n">
+      <c r="B38" s="110" t="n">
         <f aca="false">R32+S32</f>
         <v>0</v>
       </c>
-      <c r="C38" s="109" t="n">
+      <c r="C38" s="110" t="n">
         <f aca="false">AK32</f>
         <v>0</v>
       </c>
-      <c r="D38" s="109" t="n">
+      <c r="D38" s="110" t="n">
         <f aca="false">Y32</f>
         <v>0</v>
       </c>
-      <c r="E38" s="109" t="n">
+      <c r="E38" s="110" t="n">
         <f aca="false">AE32</f>
         <v>0</v>
       </c>
-      <c r="F38" s="109" t="n">
+      <c r="F38" s="110" t="n">
         <f aca="false">S32</f>
         <v>0</v>
       </c>
-      <c r="I38" s="111"/>
+      <c r="I38" s="112"/>
     </row>
-    <row r="39" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="108" t="s">
+    <row r="39" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="109" t="n">
+      <c r="B39" s="110" t="n">
         <f aca="false">T32</f>
         <v>0</v>
       </c>
-      <c r="C39" s="109" t="n">
+      <c r="C39" s="110" t="n">
         <f aca="false">AL32</f>
         <v>0</v>
       </c>
-      <c r="D39" s="109" t="n">
+      <c r="D39" s="110" t="n">
         <f aca="false">Z32</f>
         <v>0</v>
       </c>
-      <c r="E39" s="109" t="n">
+      <c r="E39" s="110" t="n">
         <f aca="false">AF32</f>
         <v>0</v>
       </c>
-      <c r="F39" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="111"/>
+      <c r="F39" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="112"/>
     </row>
-    <row r="40" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="108" t="s">
+    <row r="40" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="109" t="n">
+      <c r="B40" s="110" t="n">
         <f aca="false">U32</f>
         <v>0</v>
       </c>
-      <c r="C40" s="109" t="n">
+      <c r="C40" s="110" t="n">
         <f aca="false">AM32</f>
         <v>0</v>
       </c>
-      <c r="D40" s="109" t="n">
+      <c r="D40" s="110" t="n">
         <f aca="false">AA32</f>
         <v>0</v>
       </c>
-      <c r="E40" s="109" t="n">
+      <c r="E40" s="110" t="n">
         <f aca="false">AG32</f>
         <v>0</v>
       </c>
-      <c r="F40" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="111"/>
+      <c r="F40" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="112"/>
     </row>
-    <row r="41" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="108" t="s">
+    <row r="41" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="109" t="n">
+      <c r="B41" s="110" t="n">
         <f aca="false">V32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="109" t="n">
+      <c r="C41" s="110" t="n">
         <f aca="false">AN32</f>
         <v>0</v>
       </c>
-      <c r="D41" s="109" t="n">
+      <c r="D41" s="110" t="n">
         <f aca="false">AB32</f>
         <v>0</v>
       </c>
-      <c r="E41" s="109" t="n">
+      <c r="E41" s="110" t="n">
         <f aca="false">AH32</f>
         <v>0</v>
       </c>
-      <c r="F41" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="111"/>
+      <c r="F41" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="112"/>
     </row>
-    <row r="42" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="108" t="s">
+    <row r="42" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="109" t="n">
+      <c r="B42" s="110" t="n">
         <f aca="false">W32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="109" t="n">
+      <c r="C42" s="110" t="n">
         <f aca="false">AO32</f>
         <v>0</v>
       </c>
-      <c r="D42" s="109" t="n">
+      <c r="D42" s="110" t="n">
         <f aca="false">AC32</f>
         <v>0</v>
       </c>
-      <c r="E42" s="109" t="n">
+      <c r="E42" s="110" t="n">
         <f aca="false">AI32</f>
         <v>0</v>
       </c>
-      <c r="F42" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="111"/>
+      <c r="F42" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="112"/>
     </row>
-    <row r="43" s="110" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="108" t="s">
+    <row r="43" s="111" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="109" t="n">
+      <c r="B43" s="110" t="n">
         <f aca="false">X32</f>
         <v>0</v>
       </c>
-      <c r="C43" s="109" t="n">
+      <c r="C43" s="110" t="n">
         <f aca="false">AP32</f>
         <v>0</v>
       </c>
-      <c r="D43" s="109" t="n">
+      <c r="D43" s="110" t="n">
         <f aca="false">AD32</f>
         <v>0</v>
       </c>
-      <c r="E43" s="109" t="n">
+      <c r="E43" s="110" t="n">
         <f aca="false">AJ32</f>
         <v>0</v>
       </c>
-      <c r="F43" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="111"/>
+      <c r="F43" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="112"/>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="114" t="str">
+      <c r="B44" s="115" t="str">
         <f aca="false">COUNTIF(C14:C29,"Leave")&amp;" "&amp;"Leaves"&amp;" "&amp;"-"&amp;IF(C14="Leave",(TEXT(A14,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C15="Leave",(TEXT(A15,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C16="Leave",(TEXT(A16,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C17="Leave",(TEXT(A17,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C18="Leave",(TEXT(A18,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C19="Leave",(TEXT(A19,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C20="Leave",(TEXT(A20,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C21="Leave",(TEXT(A21,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C22="Leave",(TEXT(A22,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C23="Leave",(TEXT(A23,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C24="Leave",(TEXT(A24,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C25="Leave",(TEXT(A25,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C26="Leave",(TEXT(A26,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C27="Leave",(TEXT(A27,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C28="Leave",(TEXT(A28,"DD-mmm")&amp;","),"")&amp;" "&amp;IF(C29="Leave",(TEXT(A29,"DD-mmm")&amp;","),"")</f>
         <v>0 Leaves -               </v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="d9ff" formatCells="false" formatColumns="false" formatRows="false" autoFilter="false" pivotTables="false"/>
@@ -10638,10 +10603,10 @@
     <mergeCell ref="B44:F44"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:B30">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Sun" dxfId="5">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Sun" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("Sun",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Sat" dxfId="6">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Sat" dxfId="1">
       <formula>NOT(ISERROR(SEARCH("Sat",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
